--- a/CCBC Treasurer/20-21/Boat Club Accounts 2020-21.xlsx
+++ b/CCBC Treasurer/20-21/Boat Club Accounts 2020-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Drury\Documents\CAMBRIDGE\CCBC\CCBC Treasurer\20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19CA97E-72BA-45A1-8A6C-D1C8EB907042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1FE755-939A-474A-A7E0-BF337440884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,9 +1473,6 @@
     <t>As of Mar 21</t>
   </si>
   <si>
-    <t>College Current</t>
-  </si>
-  <si>
     <t>Christ's College 'JCR' Budget</t>
   </si>
   <si>
@@ -1702,6 +1699,9 @@
   </si>
   <si>
     <t>Bold items are taken to next years budget</t>
+  </si>
+  <si>
+    <t>College Budget</t>
   </si>
 </sst>
 </file>
@@ -2984,6 +2984,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="14" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3005,12 +3011,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3453,10 +3453,10 @@
   <dimension ref="A1:AK305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C24" sqref="C24"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
-      <selection pane="bottomRight" activeCell="G168" sqref="G168"/>
+      <selection pane="bottomRight" activeCell="M162" sqref="M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C2" s="61">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="63"/>
@@ -3560,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="J2" s="66" t="s">
         <v>5</v>
@@ -7629,7 +7629,7 @@
         <v>44120</v>
       </c>
       <c r="B68" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C68" s="104" t="s">
         <v>57</v>
@@ -9854,7 +9854,7 @@
         <v>44279</v>
       </c>
       <c r="B107" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C107" s="104" t="s">
         <v>57</v>
@@ -9911,7 +9911,7 @@
         <v>44280</v>
       </c>
       <c r="B108" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C108" s="104" t="s">
         <v>57</v>
@@ -9968,7 +9968,7 @@
         <v>44285</v>
       </c>
       <c r="B109" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C109" s="104" t="s">
         <v>57</v>
@@ -10025,7 +10025,7 @@
         <v>44285</v>
       </c>
       <c r="B110" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C110" s="104" t="s">
         <v>57</v>
@@ -10082,7 +10082,7 @@
         <v>44285</v>
       </c>
       <c r="B111" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C111" s="104" t="s">
         <v>57</v>
@@ -10139,7 +10139,7 @@
         <v>44285</v>
       </c>
       <c r="B112" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C112" s="104" t="s">
         <v>57</v>
@@ -10196,7 +10196,7 @@
         <v>44286</v>
       </c>
       <c r="B113" s="69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C113" s="104" t="s">
         <v>57</v>
@@ -10253,7 +10253,7 @@
         <v>44286</v>
       </c>
       <c r="B114" s="69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C114" s="104" t="s">
         <v>57</v>
@@ -10310,7 +10310,7 @@
         <v>44287</v>
       </c>
       <c r="B115" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C115" s="104" t="s">
         <v>57</v>
@@ -10367,7 +10367,7 @@
         <v>44287</v>
       </c>
       <c r="B116" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C116" s="104" t="s">
         <v>57</v>
@@ -10424,7 +10424,7 @@
         <v>44288</v>
       </c>
       <c r="B117" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C117" s="104" t="s">
         <v>57</v>
@@ -10481,7 +10481,7 @@
         <v>44291</v>
       </c>
       <c r="B118" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C118" s="104" t="s">
         <v>57</v>
@@ -10538,7 +10538,7 @@
         <v>44292</v>
       </c>
       <c r="B119" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C119" s="104" t="s">
         <v>57</v>
@@ -10709,7 +10709,7 @@
         <v>44299</v>
       </c>
       <c r="B122" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C122" s="104" t="s">
         <v>57</v>
@@ -10766,7 +10766,7 @@
         <v>44301</v>
       </c>
       <c r="B123" s="69" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C123" s="104" t="s">
         <v>57</v>
@@ -10823,7 +10823,7 @@
         <v>44302</v>
       </c>
       <c r="B124" s="69" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C124" s="104" t="s">
         <v>57</v>
@@ -10880,7 +10880,7 @@
         <v>44312</v>
       </c>
       <c r="B125" s="69" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C125" s="104" t="s">
         <v>57</v>
@@ -10937,7 +10937,7 @@
         <v>44313</v>
       </c>
       <c r="B126" s="69" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C126" s="104" t="s">
         <v>57</v>
@@ -10994,7 +10994,7 @@
         <v>44314</v>
       </c>
       <c r="B127" s="69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C127" s="104" t="s">
         <v>57</v>
@@ -11051,7 +11051,7 @@
         <v>44314</v>
       </c>
       <c r="B128" s="69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C128" s="104" t="s">
         <v>57</v>
@@ -11165,7 +11165,7 @@
         <v>44320</v>
       </c>
       <c r="B130" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C130" s="104" t="s">
         <v>57</v>
@@ -11279,7 +11279,7 @@
         <v>44335</v>
       </c>
       <c r="B132" s="69" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C132" s="104" t="s">
         <v>57</v>
@@ -11336,7 +11336,7 @@
         <v>44337</v>
       </c>
       <c r="B133" s="69" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C133" s="104" t="s">
         <v>57</v>
@@ -11393,7 +11393,7 @@
         <v>44337</v>
       </c>
       <c r="B134" s="69" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C134" s="104" t="s">
         <v>57</v>
@@ -11450,7 +11450,7 @@
         <v>44342</v>
       </c>
       <c r="B135" s="69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C135" s="104" t="s">
         <v>57</v>
@@ -11507,7 +11507,7 @@
         <v>44344</v>
       </c>
       <c r="B136" s="69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C136" s="104" t="s">
         <v>57</v>
@@ -11564,7 +11564,7 @@
         <v>44350</v>
       </c>
       <c r="B137" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C137" s="104" t="s">
         <v>57</v>
@@ -11621,7 +11621,7 @@
         <v>44350</v>
       </c>
       <c r="B138" s="69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C138" s="104" t="s">
         <v>57</v>
@@ -11678,7 +11678,7 @@
         <v>44350</v>
       </c>
       <c r="B139" s="69" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C139" s="104" t="s">
         <v>57</v>
@@ -11735,7 +11735,7 @@
         <v>44354</v>
       </c>
       <c r="B140" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C140" s="104" t="s">
         <v>57</v>
@@ -11792,7 +11792,7 @@
         <v>44354</v>
       </c>
       <c r="B141" s="69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C141" s="104" t="s">
         <v>57</v>
@@ -11906,7 +11906,7 @@
         <v>44359</v>
       </c>
       <c r="B143" s="69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C143" s="104" t="s">
         <v>57</v>
@@ -11963,7 +11963,7 @@
         <v>44361</v>
       </c>
       <c r="B144" s="69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C144" s="104" t="s">
         <v>57</v>
@@ -12020,7 +12020,7 @@
         <v>44362</v>
       </c>
       <c r="B145" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C145" s="104" t="s">
         <v>57</v>
@@ -12077,7 +12077,7 @@
         <v>44362</v>
       </c>
       <c r="B146" s="69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C146" s="104" t="s">
         <v>57</v>
@@ -12134,7 +12134,7 @@
         <v>44362</v>
       </c>
       <c r="B147" s="69" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C147" s="104" t="s">
         <v>57</v>
@@ -12191,7 +12191,7 @@
         <v>44362</v>
       </c>
       <c r="B148" s="69" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C148" s="104" t="s">
         <v>57</v>
@@ -12248,7 +12248,7 @@
         <v>44362</v>
       </c>
       <c r="B149" s="69" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C149" s="104" t="s">
         <v>57</v>
@@ -12305,7 +12305,7 @@
         <v>44364</v>
       </c>
       <c r="B150" s="69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C150" s="104" t="s">
         <v>57</v>
@@ -12361,23 +12361,23 @@
       <c r="A151" s="88">
         <v>44364</v>
       </c>
-      <c r="B151" s="282" t="s">
-        <v>496</v>
-      </c>
-      <c r="C151" s="283" t="s">
+      <c r="B151" s="275" t="s">
+        <v>495</v>
+      </c>
+      <c r="C151" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="D151" s="284" t="s">
+      <c r="D151" s="277" t="s">
         <v>74</v>
       </c>
-      <c r="E151" s="285">
+      <c r="E151" s="278">
         <v>-240</v>
       </c>
-      <c r="F151" s="286">
+      <c r="F151" s="279">
         <f t="shared" si="11"/>
         <v>10768.390000000009</v>
       </c>
-      <c r="G151" s="287">
+      <c r="G151" s="280">
         <f t="shared" si="12"/>
         <v>113147.17</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>44380</v>
       </c>
       <c r="B152" s="69" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C152" s="104" t="s">
         <v>57</v>
@@ -12476,7 +12476,7 @@
         <v>44380</v>
       </c>
       <c r="B153" s="69" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C153" s="104" t="s">
         <v>57</v>
@@ -12533,7 +12533,7 @@
         <v>44380</v>
       </c>
       <c r="B154" s="69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C154" s="104" t="s">
         <v>57</v>
@@ -12590,7 +12590,7 @@
         <v>44380</v>
       </c>
       <c r="B155" s="69" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C155" s="104" t="s">
         <v>57</v>
@@ -12647,7 +12647,7 @@
         <v>44381</v>
       </c>
       <c r="B156" s="69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C156" s="104" t="s">
         <v>57</v>
@@ -12704,7 +12704,7 @@
         <v>44382</v>
       </c>
       <c r="B157" s="274" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C157" s="104" t="s">
         <v>57</v>
@@ -12761,7 +12761,7 @@
         <v>44385</v>
       </c>
       <c r="B158" s="274" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C158" s="104" t="s">
         <v>57</v>
@@ -12818,7 +12818,7 @@
         <v>44385</v>
       </c>
       <c r="B159" s="274" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C159" s="104" t="s">
         <v>57</v>
@@ -12875,7 +12875,7 @@
         <v>44385</v>
       </c>
       <c r="B160" s="274" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C160" s="104" t="s">
         <v>57</v>
@@ -12932,7 +12932,7 @@
         <v>44385</v>
       </c>
       <c r="B161" s="69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C161" s="104" t="s">
         <v>57</v>
@@ -13089,7 +13089,7 @@
     <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164" s="121"/>
       <c r="B164" s="69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C164" s="104"/>
       <c r="D164" s="105"/>
@@ -13133,7 +13133,7 @@
     <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165" s="121"/>
       <c r="B165" s="69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C165" s="104"/>
       <c r="D165" s="105"/>
@@ -19495,8 +19495,8 @@
   </sheetPr>
   <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19525,10 +19525,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="124" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="285" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="280"/>
+      <c r="B1" s="286"/>
       <c r="D1" s="129"/>
       <c r="E1" s="130"/>
       <c r="F1" s="131"/>
@@ -19733,17 +19733,17 @@
       <c r="AZ5" s="125"/>
     </row>
     <row r="6" spans="1:52" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="275" t="s">
+      <c r="A6" s="281" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="276"/>
-      <c r="C6" s="276"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="282"/>
       <c r="D6" s="140" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="151">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="F6" s="141"/>
       <c r="N6" s="213"/>
@@ -20452,7 +20452,7 @@
     </row>
     <row r="21" spans="1:52" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="142" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="B21" s="223">
         <f>HLOOKUP($A21,Account_table,3,FALSE)</f>
@@ -20505,7 +20505,7 @@
       <c r="D22" s="225"/>
       <c r="E22" s="149"/>
       <c r="F22" s="144" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G22" s="128"/>
       <c r="X22" s="239"/>
@@ -21466,7 +21466,7 @@
         <v>168.63</v>
       </c>
       <c r="F44" s="144" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G44" s="196"/>
       <c r="X44" s="239"/>
@@ -21608,10 +21608,10 @@
       <c r="AT47" s="239"/>
     </row>
     <row r="48" spans="1:47" s="124" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="277" t="s">
+      <c r="A48" s="283" t="s">
         <v>417</v>
       </c>
-      <c r="B48" s="278"/>
+      <c r="B48" s="284"/>
       <c r="C48" s="265">
         <f>C16+C26-C46</f>
         <v>13817.14</v>
@@ -21729,7 +21729,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -21744,10 +21744,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="287" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="281"/>
+      <c r="B1" s="287"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21805,7 +21805,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="str">
         <f>Report!A21</f>
-        <v>College Current</v>
+        <v>College Budget</v>
       </c>
       <c r="B7" s="23">
         <f>HLOOKUP($A7,Account_table,2,FALSE)</f>
@@ -22260,10 +22260,10 @@
       <c r="F35" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="281" t="s">
+      <c r="A37" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="281"/>
+      <c r="B37" s="287"/>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22522,7 +22522,7 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -24004,7 +24004,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G28:G29"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24085,13 +24085,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="160" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B5" s="160" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D5" s="162">
         <v>10</v>
@@ -24117,13 +24117,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="160" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" s="160" t="s">
         <v>242</v>
       </c>
       <c r="C7" s="160" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" s="162">
         <v>10</v>
@@ -24181,13 +24181,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="160" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="160" t="s">
         <v>458</v>
       </c>
-      <c r="B11" s="160" t="s">
-        <v>459</v>
-      </c>
       <c r="C11" s="160" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D11" s="162">
         <v>10</v>
@@ -24213,13 +24213,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="160" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="160" t="s">
         <v>460</v>
       </c>
-      <c r="B13" s="160" t="s">
-        <v>461</v>
-      </c>
       <c r="C13" s="160" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" s="162">
         <v>10</v>
@@ -24277,13 +24277,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="160" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B17" s="160" t="s">
         <v>314</v>
       </c>
       <c r="C17" s="160" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D17" s="162">
         <v>10</v>
@@ -24504,10 +24504,10 @@
         <v>410</v>
       </c>
       <c r="B31" s="164" t="s">
+        <v>445</v>
+      </c>
+      <c r="C31" s="164" t="s">
         <v>446</v>
-      </c>
-      <c r="C31" s="164" t="s">
-        <v>447</v>
       </c>
       <c r="D31" s="165">
         <v>25</v>
@@ -24533,13 +24533,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="164" t="s">
+        <v>447</v>
+      </c>
+      <c r="B33" s="164" t="s">
         <v>448</v>
       </c>
-      <c r="B33" s="164" t="s">
-        <v>449</v>
-      </c>
       <c r="C33" s="164" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D33" s="165">
         <v>25</v>
@@ -24597,13 +24597,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="164" t="s">
+        <v>449</v>
+      </c>
+      <c r="B37" s="164" t="s">
         <v>450</v>
       </c>
-      <c r="B37" s="164" t="s">
-        <v>451</v>
-      </c>
       <c r="C37" s="164" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D37" s="165">
         <v>25</v>
@@ -24629,13 +24629,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="164" t="s">
+        <v>451</v>
+      </c>
+      <c r="B39" s="164" t="s">
         <v>452</v>
       </c>
-      <c r="B39" s="164" t="s">
-        <v>453</v>
-      </c>
       <c r="C39" s="164" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D39" s="165">
         <v>25</v>
@@ -24696,7 +24696,7 @@
         <v>396</v>
       </c>
       <c r="B43" s="164" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C43" s="164" t="s">
         <v>398</v>
@@ -24853,7 +24853,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="164" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B53" s="164" t="s">
         <v>385</v>
@@ -24942,7 +24942,7 @@
   <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
